--- a/mcmobs/mcmobs.xlsx
+++ b/mcmobs/mcmobs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CardCollectionBuilder\CardCollectionBuilder\example_pack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\CardCollectionBuilder\CardCollectionBuilder\mcmobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A4AE5-EDB7-4667-BC6F-F27798E14A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8063696-3BFE-45B7-B923-6AC54C91962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-120" windowWidth="37080" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="3660" windowWidth="27900" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="collection" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="423">
   <si>
     <t>Id</t>
   </si>
@@ -1439,6 +1439,10 @@
   </si>
   <si>
     <t>Card collection of minecraft mobs, data from MinecraftWiki, under CC BY-NC-SA 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,13 +1820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="22" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="22" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1831,10 +1835,10 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2009,7 +2013,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>247</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>259</v>
       </c>
@@ -2034,7 +2038,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>260</v>
       </c>
@@ -2042,12 +2046,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -2064,19 +2068,22 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" t="s">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>417</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>246</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>412</v>
       </c>
@@ -2092,20 +2099,23 @@
       <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>160</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>262</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2121,20 +2131,23 @@
       <c r="E24" t="s">
         <v>18</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>161</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>265</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2150,20 +2163,23 @@
       <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
         <v>23</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>162</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>267</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2179,20 +2195,23 @@
       <c r="E26" t="s">
         <v>18</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>163</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>269</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2208,20 +2227,23 @@
       <c r="E27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>164</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>270</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2237,20 +2259,23 @@
       <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>165</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>272</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2266,20 +2291,23 @@
       <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>166</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>278</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2295,20 +2323,23 @@
       <c r="E30" t="s">
         <v>17</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
         <v>33</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>167</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>337</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2324,20 +2355,23 @@
       <c r="E31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>168</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>289</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2353,20 +2387,23 @@
       <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
         <v>37</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>169</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>279</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -2382,20 +2419,23 @@
       <c r="E33" t="s">
         <v>18</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
         <v>39</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>170</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>280</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -2411,20 +2451,23 @@
       <c r="E34" t="s">
         <v>18</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
         <v>41</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>171</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>282</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2440,20 +2483,23 @@
       <c r="E35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
         <v>43</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>172</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>283</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2469,20 +2515,23 @@
       <c r="E36" t="s">
         <v>18</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
         <v>45</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>173</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>285</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2498,20 +2547,23 @@
       <c r="E37" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
         <v>47</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>167</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>299</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2527,20 +2579,23 @@
       <c r="E38" t="s">
         <v>18</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
         <v>49</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>174</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>293</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2556,20 +2611,23 @@
       <c r="E39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
         <v>51</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>229</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>301</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -2585,20 +2643,23 @@
       <c r="E40" t="s">
         <v>18</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
         <v>53</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>228</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>347</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2614,20 +2675,23 @@
       <c r="E41" t="s">
         <v>17</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
         <v>55</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>175</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>341</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2643,20 +2707,23 @@
       <c r="E42" t="s">
         <v>18</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
         <v>57</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>176</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>345</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -2672,20 +2739,23 @@
       <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
         <v>59</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>177</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>367</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -2701,20 +2771,23 @@
       <c r="E44" t="s">
         <v>18</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
         <v>61</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>178</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>369</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -2730,20 +2803,23 @@
       <c r="E45" t="s">
         <v>18</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" t="s">
         <v>63</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>179</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>371</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2759,20 +2835,23 @@
       <c r="E46" t="s">
         <v>17</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
         <v>65</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>180</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>365</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2788,20 +2867,23 @@
       <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
         <v>67</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>181</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>357</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -2817,20 +2899,23 @@
       <c r="E48" t="s">
         <v>18</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48" t="s">
         <v>69</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>182</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>355</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -2846,20 +2931,23 @@
       <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" t="s">
         <v>71</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>183</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>343</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -2875,20 +2963,23 @@
       <c r="E50" t="s">
         <v>17</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
         <v>73</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>184</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>389</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2904,20 +2995,23 @@
       <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
         <v>75</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>227</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>383</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
@@ -2933,20 +3027,23 @@
       <c r="E52" t="s">
         <v>17</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
         <v>77</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>185</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>395</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>78</v>
       </c>
@@ -2962,20 +3059,23 @@
       <c r="E53" t="s">
         <v>18</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
         <v>79</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>186</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>391</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -2991,20 +3091,23 @@
       <c r="E54" t="s">
         <v>17</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
         <v>81</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>187</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>405</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3020,20 +3123,23 @@
       <c r="E55" t="s">
         <v>18</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
         <v>83</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>286</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -3049,20 +3155,23 @@
       <c r="E56" t="s">
         <v>18</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
         <v>85</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>187</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>297</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -3078,20 +3187,23 @@
       <c r="E57" t="s">
         <v>18</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57">
+        <v>7</v>
+      </c>
+      <c r="G57" t="s">
         <v>87</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>189</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>268</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -3107,20 +3219,23 @@
       <c r="E58" t="s">
         <v>18</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
         <v>89</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>238</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>271</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -3136,20 +3251,23 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
         <v>91</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>190</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>274</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -3165,20 +3283,23 @@
       <c r="E60" t="s">
         <v>17</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
         <v>93</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>191</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>275</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -3194,20 +3315,23 @@
       <c r="E61" t="s">
         <v>18</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
         <v>95</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>192</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>276</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -3223,20 +3347,23 @@
       <c r="E62" t="s">
         <v>18</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
         <v>97</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>193</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>277</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -3252,20 +3379,23 @@
       <c r="E63" t="s">
         <v>18</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
         <v>99</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>194</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>281</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>100</v>
       </c>
@@ -3281,20 +3411,23 @@
       <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
         <v>101</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>237</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>284</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -3310,20 +3443,23 @@
       <c r="E65" t="s">
         <v>18</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
         <v>103</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>236</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>287</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -3339,20 +3475,23 @@
       <c r="E66" t="s">
         <v>18</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
         <v>105</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>195</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>288</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -3368,20 +3507,23 @@
       <c r="E67" t="s">
         <v>18</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
         <v>107</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>196</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>290</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -3397,20 +3539,23 @@
       <c r="E68" t="s">
         <v>17</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
         <v>109</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>197</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>300</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -3426,20 +3571,23 @@
       <c r="E69" t="s">
         <v>18</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
         <v>111</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>198</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>298</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -3455,20 +3603,23 @@
       <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
         <v>113</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>199</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>292</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -3484,20 +3635,23 @@
       <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
         <v>226</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>200</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>294</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3513,20 +3667,23 @@
       <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
         <v>115</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>201</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>295</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3542,20 +3699,23 @@
       <c r="E73" t="s">
         <v>18</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
         <v>117</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>202</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>339</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -3571,20 +3731,23 @@
       <c r="E74" t="s">
         <v>18</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
         <v>119</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>203</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>359</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -3600,20 +3763,23 @@
       <c r="E75" t="s">
         <v>18</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
         <v>121</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>235</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>363</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -3629,20 +3795,23 @@
       <c r="E76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
         <v>123</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>239</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>349</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>124</v>
       </c>
@@ -3658,20 +3827,23 @@
       <c r="E77" t="s">
         <v>18</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
         <v>125</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>234</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>353</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -3687,20 +3859,23 @@
       <c r="E78" t="s">
         <v>18</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" t="s">
         <v>127</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>204</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>379</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>128</v>
       </c>
@@ -3716,20 +3891,23 @@
       <c r="E79" t="s">
         <v>17</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
         <v>129</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>205</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>381</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
@@ -3745,20 +3923,23 @@
       <c r="E80" t="s">
         <v>17</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
         <v>131</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>206</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>397</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -3774,20 +3955,23 @@
       <c r="E81" t="s">
         <v>18</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
         <v>133</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>207</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>291</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -3803,20 +3987,23 @@
       <c r="E82" t="s">
         <v>17</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
         <v>135</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>208</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>273</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -3832,20 +4019,23 @@
       <c r="E83" t="s">
         <v>18</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
         <v>137</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>209</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>296</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>138</v>
       </c>
@@ -3861,20 +4051,23 @@
       <c r="E84" t="s">
         <v>17</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
         <v>139</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>210</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>373</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>140</v>
       </c>
@@ -3890,20 +4083,23 @@
       <c r="E85" t="s">
         <v>17</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
         <v>141</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>211</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>385</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>142</v>
       </c>
@@ -3919,20 +4115,23 @@
       <c r="E86" t="s">
         <v>18</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
         <v>143</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>233</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>387</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>144</v>
       </c>
@@ -3948,20 +4147,23 @@
       <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
         <v>145</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>212</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>377</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>146</v>
       </c>
@@ -3977,20 +4179,23 @@
       <c r="E88" t="s">
         <v>17</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
         <v>147</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>232</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>393</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>148</v>
       </c>
@@ -4006,20 +4211,23 @@
       <c r="E89" t="s">
         <v>17</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
         <v>149</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>231</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>351</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>150</v>
       </c>
@@ -4035,20 +4243,23 @@
       <c r="E90" t="s">
         <v>18</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
         <v>151</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>213</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>375</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -4064,20 +4275,23 @@
       <c r="E91" t="s">
         <v>17</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
         <v>153</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>214</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>403</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>154</v>
       </c>
@@ -4093,20 +4307,23 @@
       <c r="E92" t="s">
         <v>17</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
         <v>155</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>215</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>361</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -4122,20 +4339,23 @@
       <c r="E93" t="s">
         <v>18</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
         <v>157</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>216</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>399</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -4151,22 +4371,25 @@
       <c r="E94" t="s">
         <v>18</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
         <v>159</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>230</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>401</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C1048576" xr:uid="{C3750A7B-1EB9-44CF-9A95-A44129AB5D5D}">
       <formula1>$C$9:$C$12</formula1>
     </dataValidation>
@@ -4179,6 +4402,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B1048576" xr:uid="{F09F78F0-AEB0-47CE-8133-326EAAC97A9F}">
       <formula1>$B$9:$B$13</formula1>
     </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23:F1048576" xr:uid="{2D378930-3E82-4C8B-BF91-EFD07F0B5D39}">
+      <formula1>0</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
